--- a/files/Data/excel/Y英雄数据.xlsx
+++ b/files/Data/excel/Y英雄数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="20235" windowHeight="7770"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="27795" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,71 +18,19 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="LHeroData" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="I:\文件\Data\xml\LHeroData.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="I:\L\files\Data\xml\LHeroData.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_recovery_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_recovery_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_range_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ken_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ap_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic_def_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crit_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp_i</t>
+    <t>name_s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,66 +42,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小三</t>
+  </si>
+  <si>
+    <t>G.K</t>
+  </si>
+  <si>
     <t>1,2,3</t>
   </si>
   <si>
+    <t>LHeroData.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量回复速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力回复速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
+    <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,9 +69,6 @@
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LHeroData.xml</t>
   </si>
 </sst>
 </file>
@@ -243,20 +146,7 @@
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="id_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hp_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="mp_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hp_recovery_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="mp_recovery_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="atk_range_f" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ken_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="speed_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ad_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ap_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="def_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="magic_def_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="crit_f" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="money_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="exp_i" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name_s" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="icon_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skill_l" form="unqualified"/>
                 </xsd:sequence>
@@ -274,58 +164,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:S5" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="C3:S5"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:F5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="C3:F5"/>
+  <tableColumns count="4">
     <tableColumn id="1" uniqueName="id_i" name="id_i">
       <xmlColumnPr mapId="1" xpath="/root/data/id_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="hp_i" name="hp_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/hp_i" xmlDataType="integer"/>
+    <tableColumn id="2" uniqueName="name_s" name="name_s">
+      <xmlColumnPr mapId="1" xpath="/root/data/name_s" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="mp_i" name="mp_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/mp_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="hp_recovery_i" name="hp_recovery_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/hp_recovery_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="mp_recovery_i" name="mp_recovery_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/mp_recovery_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="atk_range_f" name="atk_range_f">
-      <xmlColumnPr mapId="1" xpath="/root/data/atk_range_f" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="ken_i" name="ken_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/ken_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="speed_i" name="speed_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/speed_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="ad_i" name="ad_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/ad_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="ap_i" name="ap_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/ap_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="def_i" name="def_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/def_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="magic_def_i" name="magic_def_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/magic_def_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="crit_f" name="crit_f">
-      <xmlColumnPr mapId="1" xpath="/root/data/crit_f" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="14" uniqueName="money_i" name="money_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/money_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="15" uniqueName="exp_i" name="exp_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/exp_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="16" uniqueName="icon_i" name="icon_i">
+    <tableColumn id="3" uniqueName="icon_i" name="icon_i">
       <xmlColumnPr mapId="1" xpath="/root/data/icon_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="skill_l" name="skill_l">
+    <tableColumn id="4" uniqueName="skill_l" name="skill_l">
       <xmlColumnPr mapId="1" xpath="/root/data/skill_l" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -620,87 +471,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -713,150 +516,33 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2000</v>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>2000</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>300</v>
-      </c>
-      <c r="L4">
-        <v>300</v>
-      </c>
-      <c r="M4">
-        <v>200</v>
-      </c>
-      <c r="N4">
-        <v>200</v>
-      </c>
-      <c r="O4">
-        <v>30</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
-      </c>
-      <c r="Q4">
-        <v>100</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>2000</v>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>2000</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>300</v>
-      </c>
-      <c r="L5">
-        <v>300</v>
-      </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5">
-        <v>200</v>
-      </c>
-      <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-      <c r="Q5">
-        <v>100</v>
-      </c>
-      <c r="R5">
         <v>2</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/files/Data/excel/Y英雄数据.xlsx
+++ b/files/Data/excel/Y英雄数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="390" windowWidth="27795" windowHeight="12045"/>
+    <workbookView xWindow="480" yWindow="113" windowWidth="18233" windowHeight="8453"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="LHeroData" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="I:\L\files\Data\xml\LHeroData.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\work\L\files\Data\xml\LHeroData.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>attr_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小三</t>
   </si>
   <si>
@@ -51,6 +55,9 @@
     <t>1,2,3</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>LHeroData.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +75,10 @@
   </si>
   <si>
     <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应每级的属性id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,6 +160,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name_s" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="icon_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skill_l" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="attr_l" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -164,9 +176,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:F5" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="C3:F5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:G5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="C3:G5"/>
+  <tableColumns count="5">
     <tableColumn id="1" uniqueName="id_i" name="id_i">
       <xmlColumnPr mapId="1" xpath="/root/data/id_i" xmlDataType="integer"/>
     </tableColumn>
@@ -178,6 +190,9 @@
     </tableColumn>
     <tableColumn id="4" uniqueName="skill_l" name="skill_l">
       <xmlColumnPr mapId="1" xpath="/root/data/skill_l" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="attr_l" name="attr_l">
+      <xmlColumnPr mapId="1" xpath="/root/data/attr_l" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -471,39 +486,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -516,33 +535,42 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +588,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,7 +601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
